--- a/audio/lrspeech/report/MOS.xlsx
+++ b/audio/lrspeech/report/MOS.xlsx
@@ -1,22 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xujin/Documents/xujin/2019/MSRA/回家大礼包/论文展示测试结果/cleaned/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="16200"/>
+    <workbookView xWindow="2680" yWindow="1700" windowWidth="26300" windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="Score summary" sheetId="7" r:id="rId1"/>
     <sheet name="Analysis Summary" sheetId="6" r:id="rId2"/>
     <sheet name="Audios-Overall impression" sheetId="9" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Audios-Overall impression'!$A$1:$E$281</definedName>
+  </definedNames>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="76">
   <si>
     <t>low-resource tts</t>
   </si>
@@ -105,55 +121,7 @@
     <t>n</t>
   </si>
   <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>25th Percentile</t>
-  </si>
-  <si>
-    <t>50th Percentile</t>
-  </si>
-  <si>
-    <t>75th Percentile</t>
-  </si>
-  <si>
-    <t>IQR</t>
-  </si>
-  <si>
-    <t>Q21</t>
-  </si>
-  <si>
-    <t>Q32</t>
-  </si>
-  <si>
-    <t>Minimum</t>
-  </si>
-  <si>
-    <t>Maximum</t>
-  </si>
-  <si>
-    <t>OT</t>
-  </si>
-  <si>
-    <t>OD</t>
-  </si>
-  <si>
-    <t>OTNum</t>
-  </si>
-  <si>
-    <t>ODNum</t>
-  </si>
-  <si>
     <t>CI</t>
-  </si>
-  <si>
-    <t>MinO</t>
-  </si>
-  <si>
-    <t>MaxO</t>
-  </si>
-  <si>
-    <t>IssueCode</t>
   </si>
   <si>
     <t>DomainAverageScore</t>
@@ -297,14 +265,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,7 +300,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.0499893185216834"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -360,150 +322,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,13 +343,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.349986266670736"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,194 +359,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -744,328 +383,42 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00E0C1FF"/>
-      <color rgb="00CC99FF"/>
-      <color rgb="00DEBDFF"/>
-      <color rgb="00FF0000"/>
-      <color rgb="00CC3300"/>
+      <color rgb="FFE0C1FF"/>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FFDEBDFF"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFCC3300"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1113,7 +466,6 @@
               <a:rPr lang="en-US" sz="1600" b="1"/>
               <a:t>Domain-Overall impression</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1600" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1126,6 +478,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1138,15 +510,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"GeneralSentence"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GeneralSentence</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>GeneralSentence</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1159,6 +523,78 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr defTabSz="914400">
+                      <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="hr-HR"/>
+                      <a:t>3.</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="hr-HR" altLang="zh-CN"/>
+                      <a:t>57</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr defTabSz="914400">
+                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1185,6 +621,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1217,58 +654,55 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>{"gt","gt_wavegan","Distill20000","Distill5000","LowLibri5000","HighLjVary100","AB_pretrain_unseen","Distill3000","AB_pretrain_seen","HighLjVary20","LowLibri500","LowLibri200","Distill1000","AB_pretrain_base"}</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>gt</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>gt_wavegan</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Distill20000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Distill5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>LowLibri5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>HighLjVary100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>AB_pretrain_unseen</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Distill3000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>AB_pretrain_seen</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>HighLjVary20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>LowLibri500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>LowLibri200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Distill1000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>AB_pretrain_base</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="14"/>
+              <c:pt idx="0">
+                <c:v>gt</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>gt_wavegan</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Distill20000</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Distill5000</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>LowLibri5000</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>HighLjVary100</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>AB_pretrain_unseen</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>Distill3000</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>AB_pretrain_seen</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>HighLjVary20</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>LowLibri500</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>LowLibri200</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>Distill1000</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>AB_pretrain_base</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Analysis Summary'!$R$121:$AE$121</c:f>
+              <c:f>'Analysis Summary'!$R$99:$AE$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1279,7 +713,7 @@
                   <c:v>3.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.45</c:v>
+                  <c:v>3.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.38</c:v>
@@ -1306,7 +740,7 @@
                   <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.95</c:v>
@@ -1328,11 +762,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="424032880"/>
-        <c:axId val="424037192"/>
+        <c:axId val="883132512"/>
+        <c:axId val="883134832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="424032880"/>
+        <c:axId val="883132512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1372,9 +806,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424037192"/>
+        <c:crossAx val="883134832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1382,11 +817,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="424037192"/>
+        <c:axId val="883134832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="1"/>
+          <c:max val="5.0"/>
+          <c:min val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1432,9 +867,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424032880"/>
+        <c:crossAx val="883132512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1460,7 +896,7 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr rtl="0">
               <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -1473,6 +909,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -1510,6 +947,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1557,7 +995,6 @@
               <a:rPr lang="en-US" sz="1600" b="1"/>
               <a:t>Average-Overall impression</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1600" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1570,6 +1007,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1582,15 +1039,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"AverageScore"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AverageScore</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>AverageScore</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1603,6 +1052,78 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr defTabSz="914400">
+                      <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="hr-HR"/>
+                      <a:t>3.</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="hr-HR" altLang="zh-CN"/>
+                      <a:t>57</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr defTabSz="914400">
+                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1629,6 +1150,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1661,58 +1183,55 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>{"gt","gt_wavegan","Distill20000","Distill5000","LowLibri5000","HighLjVary100","AB_pretrain_unseen","Distill3000","AB_pretrain_seen","HighLjVary20","LowLibri500","LowLibri200","Distill1000","AB_pretrain_base"}</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>gt</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>gt_wavegan</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Distill20000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Distill5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>LowLibri5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>HighLjVary100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>AB_pretrain_unseen</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Distill3000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>AB_pretrain_seen</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>HighLjVary20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>LowLibri500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>LowLibri200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Distill1000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>AB_pretrain_base</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="14"/>
+              <c:pt idx="0">
+                <c:v>gt</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>gt_wavegan</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Distill20000</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Distill5000</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>LowLibri5000</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>HighLjVary100</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>AB_pretrain_unseen</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>Distill3000</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>AB_pretrain_seen</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>HighLjVary20</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>LowLibri500</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>LowLibri200</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>Distill1000</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>AB_pretrain_base</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Analysis Summary'!$R$122:$AE$122</c:f>
+              <c:f>'Analysis Summary'!$R$100:$AE$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1723,7 +1242,7 @@
                   <c:v>3.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.45</c:v>
+                  <c:v>3.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.38</c:v>
@@ -1750,7 +1269,7 @@
                   <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.95</c:v>
@@ -1766,15 +1285,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"CI(95%)"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CI(95%)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>CI(95%)</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1813,6 +1324,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1845,58 +1357,55 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>{"gt","gt_wavegan","Distill20000","Distill5000","LowLibri5000","HighLjVary100","AB_pretrain_unseen","Distill3000","AB_pretrain_seen","HighLjVary20","LowLibri500","LowLibri200","Distill1000","AB_pretrain_base"}</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>gt</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>gt_wavegan</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Distill20000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Distill5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>LowLibri5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>HighLjVary100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>AB_pretrain_unseen</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Distill3000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>AB_pretrain_seen</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>HighLjVary20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>LowLibri500</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>LowLibri200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Distill1000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>AB_pretrain_base</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:strLit>
+              <c:ptCount val="14"/>
+              <c:pt idx="0">
+                <c:v>gt</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>gt_wavegan</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Distill20000</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Distill5000</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>LowLibri5000</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>HighLjVary100</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>AB_pretrain_unseen</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>Distill3000</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>AB_pretrain_seen</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>HighLjVary20</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>LowLibri500</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>LowLibri200</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>Distill1000</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>AB_pretrain_base</c:v>
+              </c:pt>
+            </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Analysis Summary'!$R$123:$AE$123</c:f>
+              <c:f>'Analysis Summary'!$R$101:$AE$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1956,11 +1465,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="424032096"/>
-        <c:axId val="424037584"/>
+        <c:axId val="883167488"/>
+        <c:axId val="883169808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="424032096"/>
+        <c:axId val="883167488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2000,9 +1509,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424037584"/>
+        <c:crossAx val="883169808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2010,11 +1520,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="424037584"/>
+        <c:axId val="883169808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="1"/>
+          <c:max val="5.0"/>
+          <c:min val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2060,9 +1570,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424032096"/>
+        <c:crossAx val="883167488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2088,7 +1599,7 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr rtl="0">
               <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -2101,6 +1612,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -2138,6 +1650,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3237,7 +2750,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3251,14 +2764,14 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>95247</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="342265" y="840740"/>
-        <a:ext cx="4844415" cy="3001010"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3281,14 +2794,14 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>112204</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5657850" y="859790"/>
-        <a:ext cx="4837430" cy="2999105"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3553,72 +3066,72 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="19" width="15.7115384615385" style="2" customWidth="1"/>
+    <col min="1" max="19" width="15.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="28.5" customHeight="1" spans="1:20">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:20" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-    </row>
-    <row r="3" customFormat="1" ht="18.75" customHeight="1" spans="1:20">
-      <c r="A3" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+    </row>
+    <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3668,7 +3181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -3682,7 +3195,7 @@
         <v>3.88</v>
       </c>
       <c r="E5" s="2">
-        <v>3.45</v>
+        <v>3.57</v>
       </c>
       <c r="F5" s="2">
         <v>3.38</v>
@@ -3718,51 +3231,51 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <v>4.05</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="6">
         <v>3.88</v>
       </c>
-      <c r="E6" s="10">
-        <v>3.45</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="E6" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="F6" s="6">
         <v>3.38</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="6">
         <v>3.38</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="6">
         <v>3.34</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="6">
         <v>3.28</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="6">
         <v>3.26</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="6">
         <v>3.17</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="6">
         <v>3.13</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="6">
         <v>3.1</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="6">
         <v>3</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="6">
         <v>2.95</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="6">
         <v>2.84</v>
       </c>
     </row>
@@ -3771,78 +3284,77 @@
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A3:T3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:AJ134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ112"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.8557692307692" style="2" customWidth="1"/>
-    <col min="2" max="4" width="15.7115384615385" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.4230769230769" style="2" customWidth="1"/>
-    <col min="6" max="8" width="15.7115384615385" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.5673076923077" style="2" customWidth="1"/>
-    <col min="10" max="16" width="9.14423076923077" style="2" customWidth="1"/>
-    <col min="17" max="17" width="14.5673076923077" style="2" customWidth="1"/>
-    <col min="18" max="20" width="12.7115384615385" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="15.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
+    <col min="6" max="8" width="15.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="2" customWidth="1"/>
+    <col min="10" max="16" width="9.1640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="14.5" style="2" customWidth="1"/>
+    <col min="18" max="20" width="12.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="26.25" customHeight="1" spans="1:17">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="23" customFormat="1" ht="15" customHeight="1"/>
-    <row r="24" s="3" customFormat="1"/>
-    <row r="25" customFormat="1" ht="15" customHeight="1"/>
-    <row r="26" customFormat="1" ht="15" customHeight="1"/>
-    <row r="30" customFormat="1" ht="15" customHeight="1"/>
-    <row r="31" customFormat="1" ht="15" customHeight="1"/>
-    <row r="32" customFormat="1" ht="15" customHeight="1"/>
-    <row r="33" customFormat="1" ht="15" customHeight="1"/>
-    <row r="58" spans="8:8">
-      <c r="H58" s="6" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H58" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="17:31">
-      <c r="Q75" s="7" t="s">
+    <row r="75" spans="17:31" x14ac:dyDescent="0.15">
+      <c r="Q75" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R75" s="3">
@@ -3888,8 +3400,8 @@
         <v>70599</v>
       </c>
     </row>
-    <row r="76" ht="51" spans="17:31">
-      <c r="Q76" s="7" t="s">
+    <row r="76" spans="17:31" ht="28" x14ac:dyDescent="0.15">
+      <c r="Q76" s="5" t="s">
         <v>24</v>
       </c>
       <c r="R76" s="3" t="s">
@@ -3935,55 +3447,55 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="17:31">
-      <c r="Q77" s="7" t="s">
+    <row r="77" spans="17:31" x14ac:dyDescent="0.15">
+      <c r="Q77" s="5" t="s">
         <v>25</v>
       </c>
       <c r="R77" s="3">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="S77" s="3">
-        <v>0.5152</v>
+        <v>0.51519999999999999</v>
       </c>
       <c r="T77" s="3">
-        <v>0.783</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="U77" s="3">
-        <v>0.7352</v>
+        <v>0.73519999999999996</v>
       </c>
       <c r="V77" s="3">
-        <v>0.8124</v>
+        <v>0.81240000000000001</v>
       </c>
       <c r="W77" s="3">
-        <v>0.8532</v>
+        <v>0.85319999999999996</v>
       </c>
       <c r="X77" s="3">
-        <v>0.7936</v>
+        <v>0.79359999999999997</v>
       </c>
       <c r="Y77" s="3">
         <v>0.7712</v>
       </c>
       <c r="Z77" s="3">
-        <v>0.884</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="AA77" s="3">
-        <v>0.776</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="AB77" s="3">
-        <v>0.712</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="AC77" s="3">
         <v>0.88</v>
       </c>
       <c r="AD77" s="3">
-        <v>0.809</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="AE77" s="3">
-        <v>0.9752</v>
-      </c>
-    </row>
-    <row r="78" spans="17:31">
-      <c r="Q78" s="7" t="s">
+        <v>0.97519999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="17:31" x14ac:dyDescent="0.15">
+      <c r="Q78" s="5" t="s">
         <v>26</v>
       </c>
       <c r="R78" s="3">
@@ -3993,7 +3505,7 @@
         <v>3.88</v>
       </c>
       <c r="T78" s="3">
-        <v>3.45</v>
+        <v>3.57</v>
       </c>
       <c r="U78" s="3">
         <v>3.38</v>
@@ -4029,1117 +3541,423 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="79" spans="17:31">
-      <c r="Q79" s="7" t="s">
+    <row r="79" spans="17:31" x14ac:dyDescent="0.15">
+      <c r="Q79" s="5" t="s">
         <v>27</v>
       </c>
       <c r="R79" s="3">
-        <v>0.8087</v>
+        <v>0.80869999999999997</v>
       </c>
       <c r="S79" s="3">
-        <v>0.7004</v>
+        <v>0.70040000000000002</v>
       </c>
       <c r="T79" s="3">
-        <v>0.9361</v>
+        <v>0.93610000000000004</v>
       </c>
       <c r="U79" s="3">
         <v>0.8851</v>
       </c>
       <c r="V79" s="3">
-        <v>0.9927</v>
+        <v>0.99270000000000003</v>
       </c>
       <c r="W79" s="3">
-        <v>1.0369</v>
+        <v>1.0368999999999999</v>
       </c>
       <c r="X79" s="3">
-        <v>0.9752</v>
+        <v>0.97519999999999996</v>
       </c>
       <c r="Y79" s="3">
-        <v>0.9387</v>
+        <v>0.93869999999999998</v>
       </c>
       <c r="Z79" s="3">
         <v>1.0923</v>
       </c>
       <c r="AA79" s="3">
-        <v>0.9914</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="AB79" s="3">
         <v>0.9587</v>
       </c>
       <c r="AC79" s="3">
-        <v>1.1101</v>
+        <v>1.1101000000000001</v>
       </c>
       <c r="AD79" s="3">
-        <v>1.0672</v>
+        <v>1.0671999999999999</v>
       </c>
       <c r="AE79" s="3">
         <v>1.1696</v>
       </c>
     </row>
-    <row r="80" spans="17:31">
-      <c r="Q80" s="7" t="s">
+    <row r="80" spans="17:31" x14ac:dyDescent="0.15">
+      <c r="Q80" s="5" t="s">
         <v>28</v>
       </c>
       <c r="R80" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="S80" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="T80" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="U80" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="V80" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="W80" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="X80" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Y80" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Z80" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AA80" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AB80" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AC80" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AD80" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AE80" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="17:31">
-      <c r="Q81" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="81" spans="17:31" x14ac:dyDescent="0.15">
+      <c r="Q81" s="5" t="s">
         <v>29</v>
       </c>
       <c r="R81" s="3">
+        <v>0.1605</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0.1857</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0.17560000000000001</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0.20569999999999999</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0.1862</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0.2167</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0.19670000000000001</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>0.19020000000000001</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>0.22020000000000001</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>0.2117</v>
+      </c>
+      <c r="AE81" s="3">
+        <v>0.2321</v>
+      </c>
+    </row>
+    <row r="98" spans="1:36" ht="28" x14ac:dyDescent="0.15">
+      <c r="Q98" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S98" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X98" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z98" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB98" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC98" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD98" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE98" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="Q99" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R99" s="3">
+        <v>4.05</v>
+      </c>
+      <c r="S99" s="3">
+        <v>3.88</v>
+      </c>
+      <c r="T99" s="3">
+        <v>3.57</v>
+      </c>
+      <c r="U99" s="3">
+        <v>3.38</v>
+      </c>
+      <c r="V99" s="3">
+        <v>3.38</v>
+      </c>
+      <c r="W99" s="3">
+        <v>3.34</v>
+      </c>
+      <c r="X99" s="3">
+        <v>3.28</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>3.26</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>3.17</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>3.13</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="AC99" s="3">
         <v>3</v>
       </c>
-      <c r="U81" s="3">
+      <c r="AD99" s="3">
+        <v>2.95</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="Q100" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R100" s="3">
+        <v>4.05</v>
+      </c>
+      <c r="S100" s="3">
+        <v>3.88</v>
+      </c>
+      <c r="T100" s="3">
+        <v>3.57</v>
+      </c>
+      <c r="U100" s="3">
+        <v>3.38</v>
+      </c>
+      <c r="V100" s="3">
+        <v>3.38</v>
+      </c>
+      <c r="W100" s="3">
+        <v>3.34</v>
+      </c>
+      <c r="X100" s="3">
+        <v>3.28</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>3.26</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>3.17</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>3.13</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="AC100" s="3">
         <v>3</v>
       </c>
-      <c r="V81" s="3">
-        <v>6</v>
-      </c>
-      <c r="W81" s="3">
-        <v>7</v>
-      </c>
-      <c r="X81" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>4</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>8</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>7</v>
-      </c>
-      <c r="AC81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="17:31">
-      <c r="Q82" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R82" s="3">
-        <v>4</v>
-      </c>
-      <c r="S82" s="3">
-        <v>3</v>
-      </c>
-      <c r="T82" s="3">
-        <v>3</v>
-      </c>
-      <c r="U82" s="3">
-        <v>3</v>
-      </c>
-      <c r="V82" s="3">
-        <v>3</v>
-      </c>
-      <c r="W82" s="3">
-        <v>3</v>
-      </c>
-      <c r="X82" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y82" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z82" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA82" s="3">
-        <v>3</v>
-      </c>
-      <c r="AB82" s="3">
-        <v>3</v>
-      </c>
-      <c r="AC82" s="3">
-        <v>2</v>
-      </c>
-      <c r="AD82" s="3">
-        <v>2</v>
-      </c>
-      <c r="AE82" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="17:31">
-      <c r="Q83" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="R83" s="3">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3">
-        <v>4</v>
-      </c>
-      <c r="U83" s="3">
-        <v>3</v>
-      </c>
-      <c r="V83" s="3">
-        <v>4</v>
-      </c>
-      <c r="W83" s="3">
-        <v>4</v>
-      </c>
-      <c r="X83" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>3</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>3</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>3</v>
-      </c>
-      <c r="AC83" s="3">
-        <v>3</v>
-      </c>
-      <c r="AD83" s="3">
-        <v>3</v>
-      </c>
-      <c r="AE83" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="17:31">
-      <c r="Q84" s="7" t="s">
+      <c r="AD100" s="3">
+        <v>2.95</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="Q101" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R84" s="3">
-        <v>5</v>
-      </c>
-      <c r="S84" s="3">
-        <v>4</v>
-      </c>
-      <c r="T84" s="3">
-        <v>4</v>
-      </c>
-      <c r="U84" s="3">
-        <v>4</v>
-      </c>
-      <c r="V84" s="3">
-        <v>4</v>
-      </c>
-      <c r="W84" s="3">
-        <v>4</v>
-      </c>
-      <c r="X84" s="3">
-        <v>4</v>
-      </c>
-      <c r="Y84" s="3">
-        <v>4</v>
-      </c>
-      <c r="Z84" s="3">
-        <v>4</v>
-      </c>
-      <c r="AA84" s="3">
-        <v>4</v>
-      </c>
-      <c r="AB84" s="3">
-        <v>4</v>
-      </c>
-      <c r="AC84" s="3">
-        <v>4</v>
-      </c>
-      <c r="AD84" s="3">
-        <v>4</v>
-      </c>
-      <c r="AE84" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="17:31">
-      <c r="Q85" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R85" s="3">
-        <v>1</v>
-      </c>
-      <c r="S85" s="3">
-        <v>1</v>
-      </c>
-      <c r="T85" s="3">
-        <v>1</v>
-      </c>
-      <c r="U85" s="3">
-        <v>1</v>
-      </c>
-      <c r="V85" s="3">
-        <v>1</v>
-      </c>
-      <c r="W85" s="3">
-        <v>1</v>
-      </c>
-      <c r="X85" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y85" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z85" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA85" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB85" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC85" s="3">
-        <v>2</v>
-      </c>
-      <c r="AD85" s="3">
-        <v>2</v>
-      </c>
-      <c r="AE85" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="17:31">
-      <c r="Q86" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R86" s="3">
-        <v>0</v>
-      </c>
-      <c r="S86" s="3">
-        <v>1</v>
-      </c>
-      <c r="T86" s="3">
-        <v>1</v>
-      </c>
-      <c r="U86" s="3">
-        <v>0</v>
-      </c>
-      <c r="V86" s="3">
-        <v>1</v>
-      </c>
-      <c r="W86" s="3">
-        <v>1</v>
-      </c>
-      <c r="X86" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y86" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z86" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC86" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD86" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE86" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="17:31">
-      <c r="Q87" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R87" s="3">
-        <v>1</v>
-      </c>
-      <c r="S87" s="3">
-        <v>0</v>
-      </c>
-      <c r="T87" s="3">
-        <v>0</v>
-      </c>
-      <c r="U87" s="3">
-        <v>1</v>
-      </c>
-      <c r="V87" s="3">
-        <v>0</v>
-      </c>
-      <c r="W87" s="3">
-        <v>0</v>
-      </c>
-      <c r="X87" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y87" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z87" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA87" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB87" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC87" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD87" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE87" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="17:31">
-      <c r="Q88" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R88" s="3">
-        <v>3</v>
-      </c>
-      <c r="S88" s="3">
-        <v>2</v>
-      </c>
-      <c r="T88" s="3">
-        <v>2</v>
-      </c>
-      <c r="U88" s="3">
-        <v>2</v>
-      </c>
-      <c r="V88" s="3">
-        <v>2</v>
-      </c>
-      <c r="W88" s="3">
-        <v>2</v>
-      </c>
-      <c r="X88" s="3">
-        <v>2</v>
-      </c>
-      <c r="Y88" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z88" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA88" s="3">
-        <v>2</v>
-      </c>
-      <c r="AB88" s="3">
-        <v>2</v>
-      </c>
-      <c r="AC88" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD88" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE88" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="17:31">
-      <c r="Q89" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="R89" s="3">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
-        <v>5</v>
-      </c>
-      <c r="T89" s="3">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
-        <v>5</v>
-      </c>
-      <c r="W89" s="3">
-        <v>5</v>
-      </c>
-      <c r="X89" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>5</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>5</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>5</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>5</v>
-      </c>
-      <c r="AC89" s="3">
-        <v>5</v>
-      </c>
-      <c r="AD89" s="3">
-        <v>5</v>
-      </c>
-      <c r="AE89" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="17:31">
-      <c r="Q90" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="R90" s="3">
-        <v>0</v>
-      </c>
-      <c r="S90" s="3">
-        <v>0</v>
-      </c>
-      <c r="T90" s="3">
-        <v>0</v>
-      </c>
-      <c r="U90" s="3">
-        <v>0</v>
-      </c>
-      <c r="V90" s="3">
-        <v>0</v>
-      </c>
-      <c r="W90" s="3">
-        <v>0</v>
-      </c>
-      <c r="X90" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y90" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z90" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA90" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB90" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC90" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD90" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE90" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="17:31">
-      <c r="Q91" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="17:31">
-      <c r="Q92" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="R92" s="3">
-        <v>0</v>
-      </c>
-      <c r="S92" s="3">
-        <v>0</v>
-      </c>
-      <c r="T92" s="3">
-        <v>0</v>
-      </c>
-      <c r="U92" s="3">
-        <v>0</v>
-      </c>
-      <c r="V92" s="3">
-        <v>0</v>
-      </c>
-      <c r="W92" s="3">
-        <v>0</v>
-      </c>
-      <c r="X92" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y92" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z92" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA92" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB92" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC92" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD92" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE92" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="17:31">
-      <c r="Q93" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R93" s="3">
-        <v>0</v>
-      </c>
-      <c r="S93" s="3">
-        <v>0</v>
-      </c>
-      <c r="T93" s="3">
-        <v>0</v>
-      </c>
-      <c r="U93" s="3">
-        <v>0</v>
-      </c>
-      <c r="V93" s="3">
-        <v>0</v>
-      </c>
-      <c r="W93" s="3">
-        <v>0</v>
-      </c>
-      <c r="X93" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y93" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z93" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA93" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB93" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC93" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD93" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE93" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="17:31">
-      <c r="Q94" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0.1605</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0.139</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0.1857</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0.1756</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0.197</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0.2057</v>
-      </c>
-      <c r="X94" s="3">
-        <v>0.1935</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0.1862</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>0.2167</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>0.1967</v>
-      </c>
-      <c r="AB94" s="3">
-        <v>0.1902</v>
-      </c>
-      <c r="AC94" s="3">
-        <v>0.2202</v>
-      </c>
-      <c r="AD94" s="3">
-        <v>0.2117</v>
-      </c>
-      <c r="AE94" s="3">
-        <v>0.2321</v>
-      </c>
-    </row>
-    <row r="95" spans="17:31">
-      <c r="Q95" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R95" s="3">
-        <v>5</v>
-      </c>
-      <c r="S95" s="3">
-        <v>0</v>
-      </c>
-      <c r="T95" s="3">
-        <v>3</v>
-      </c>
-      <c r="U95" s="3">
-        <v>3</v>
-      </c>
-      <c r="V95" s="3">
-        <v>6</v>
-      </c>
-      <c r="W95" s="3">
-        <v>7</v>
-      </c>
-      <c r="X95" s="3">
-        <v>5</v>
-      </c>
-      <c r="Y95" s="3">
-        <v>4</v>
-      </c>
-      <c r="Z95" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA95" s="3">
-        <v>8</v>
-      </c>
-      <c r="AB95" s="3">
-        <v>7</v>
-      </c>
-      <c r="AC95" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD95" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE95" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="17:31">
-      <c r="Q96" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="17:17">
-      <c r="Q103" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="120" ht="51" spans="17:31">
-      <c r="Q120" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="R120" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S120" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T120" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="U120" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="V120" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W120" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="X120" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z120" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA120" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB120" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC120" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD120" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE120" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="121" ht="34" spans="17:31">
-      <c r="Q121" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R121" s="3">
-        <v>4.05</v>
-      </c>
-      <c r="S121" s="3">
-        <v>3.88</v>
-      </c>
-      <c r="T121" s="3">
-        <v>3.45</v>
-      </c>
-      <c r="U121" s="3">
-        <v>3.38</v>
-      </c>
-      <c r="V121" s="3">
-        <v>3.38</v>
-      </c>
-      <c r="W121" s="3">
-        <v>3.34</v>
-      </c>
-      <c r="X121" s="3">
-        <v>3.28</v>
-      </c>
-      <c r="Y121" s="3">
-        <v>3.26</v>
-      </c>
-      <c r="Z121" s="3">
-        <v>3.17</v>
-      </c>
-      <c r="AA121" s="3">
-        <v>3.13</v>
-      </c>
-      <c r="AB121" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="AC121" s="3">
-        <v>3</v>
-      </c>
-      <c r="AD121" s="3">
-        <v>2.95</v>
-      </c>
-      <c r="AE121" s="3">
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="122" ht="17" spans="17:31">
-      <c r="Q122" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="R122" s="3">
-        <v>4.05</v>
-      </c>
-      <c r="S122" s="3">
-        <v>3.88</v>
-      </c>
-      <c r="T122" s="3">
-        <v>3.45</v>
-      </c>
-      <c r="U122" s="3">
-        <v>3.38</v>
-      </c>
-      <c r="V122" s="3">
-        <v>3.38</v>
-      </c>
-      <c r="W122" s="3">
-        <v>3.34</v>
-      </c>
-      <c r="X122" s="3">
-        <v>3.28</v>
-      </c>
-      <c r="Y122" s="3">
-        <v>3.26</v>
-      </c>
-      <c r="Z122" s="3">
-        <v>3.17</v>
-      </c>
-      <c r="AA122" s="3">
-        <v>3.13</v>
-      </c>
-      <c r="AB122" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="AC122" s="3">
-        <v>3</v>
-      </c>
-      <c r="AD122" s="3">
-        <v>2.95</v>
-      </c>
-      <c r="AE122" s="3">
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="123" ht="17" spans="17:31">
-      <c r="Q123" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R123" s="3">
+      <c r="R101" s="3">
         <v>0.16</v>
       </c>
-      <c r="S123" s="3">
-        <v>0.14</v>
-      </c>
-      <c r="T123" s="3">
+      <c r="S101" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T101" s="3">
         <v>0.19</v>
       </c>
-      <c r="U123" s="3">
+      <c r="U101" s="3">
         <v>0.18</v>
       </c>
-      <c r="V123" s="3">
+      <c r="V101" s="3">
         <v>0.2</v>
       </c>
-      <c r="W123" s="3">
+      <c r="W101" s="3">
         <v>0.21</v>
       </c>
-      <c r="X123" s="3">
+      <c r="X101" s="3">
         <v>0.19</v>
       </c>
-      <c r="Y123" s="3">
+      <c r="Y101" s="3">
         <v>0.19</v>
       </c>
-      <c r="Z123" s="3">
+      <c r="Z101" s="3">
         <v>0.22</v>
       </c>
-      <c r="AA123" s="3">
+      <c r="AA101" s="3">
         <v>0.2</v>
       </c>
-      <c r="AB123" s="3">
+      <c r="AB101" s="3">
         <v>0.19</v>
       </c>
-      <c r="AC123" s="3">
+      <c r="AC101" s="3">
         <v>0.22</v>
       </c>
-      <c r="AD123" s="3">
+      <c r="AD101" s="3">
         <v>0.21</v>
       </c>
-      <c r="AE123" s="3">
+      <c r="AE101" s="3">
         <v>0.23</v>
       </c>
     </row>
-    <row r="134" customFormat="1" ht="18.75" customHeight="1" spans="17:36">
-      <c r="Q134" s="8"/>
-      <c r="R134" s="2"/>
-      <c r="S134" s="2"/>
-      <c r="T134" s="2"/>
-      <c r="U134" s="2"/>
-      <c r="V134" s="2"/>
-      <c r="W134" s="2"/>
-      <c r="X134" s="2"/>
-      <c r="Y134" s="2"/>
-      <c r="Z134" s="2"/>
-      <c r="AA134" s="2"/>
-      <c r="AB134" s="2"/>
-      <c r="AC134" s="2"/>
-      <c r="AD134" s="2"/>
-      <c r="AE134" s="2"/>
-      <c r="AF134" s="2"/>
-      <c r="AG134" s="2"/>
-      <c r="AH134" s="2"/>
-      <c r="AI134" s="2"/>
-      <c r="AJ134" s="2"/>
+    <row r="112" spans="1:36" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112" s="9"/>
+      <c r="R112" s="8"/>
+      <c r="S112" s="8"/>
+      <c r="T112" s="8"/>
+      <c r="U112" s="8"/>
+      <c r="V112" s="8"/>
+      <c r="W112" s="8"/>
+      <c r="X112" s="8"/>
+      <c r="Y112" s="8"/>
+      <c r="Z112" s="8"/>
+      <c r="AA112" s="8"/>
+      <c r="AB112" s="8"/>
+      <c r="AC112" s="8"/>
+      <c r="AD112" s="8"/>
+      <c r="AE112" s="8"/>
+      <c r="AF112" s="8"/>
+      <c r="AG112" s="8"/>
+      <c r="AH112" s="8"/>
+      <c r="AI112" s="8"/>
+      <c r="AJ112" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="Q134:AJ134"/>
+    <mergeCell ref="Q112:AJ112"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H58" r:id="rId2" display="Term and methodology reference"/>
+    <hyperlink ref="H58" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="20.3461538461538" customWidth="1"/>
-    <col min="3" max="3" width="17.7788461538462" customWidth="1"/>
-    <col min="4" max="4" width="15.5384615384615" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>3254988</v>
       </c>
@@ -5150,13 +3968,13 @@
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>3254989</v>
       </c>
@@ -5167,13 +3985,13 @@
         <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3254990</v>
       </c>
@@ -5184,13 +4002,13 @@
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>3254991</v>
       </c>
@@ -5201,13 +4019,13 @@
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3254992</v>
       </c>
@@ -5218,13 +4036,13 @@
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>3254993</v>
       </c>
@@ -5235,13 +4053,13 @@
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>3254994</v>
       </c>
@@ -5252,13 +4070,13 @@
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2">
         <v>2.4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>3254995</v>
       </c>
@@ -5269,13 +4087,13 @@
         <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2">
         <v>2.4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>3254996</v>
       </c>
@@ -5286,13 +4104,13 @@
         <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>3254997</v>
       </c>
@@ -5303,13 +4121,13 @@
         <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>3254998</v>
       </c>
@@ -5320,13 +4138,13 @@
         <v>17</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>3254999</v>
       </c>
@@ -5337,13 +4155,13 @@
         <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>3255000</v>
       </c>
@@ -5354,13 +4172,13 @@
         <v>17</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>3255001</v>
       </c>
@@ -5371,13 +4189,13 @@
         <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>3255002</v>
       </c>
@@ -5388,13 +4206,13 @@
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>3255003</v>
       </c>
@@ -5405,13 +4223,13 @@
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2">
         <v>2.4</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>3255004</v>
       </c>
@@ -5422,13 +4240,13 @@
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E18" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>3255005</v>
       </c>
@@ -5439,13 +4257,13 @@
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E19" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>3255006</v>
       </c>
@@ -5456,13 +4274,13 @@
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E20" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>3255007</v>
       </c>
@@ -5473,13 +4291,13 @@
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E21" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>3255008</v>
       </c>
@@ -5490,13 +4308,13 @@
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>3255009</v>
       </c>
@@ -5507,13 +4325,13 @@
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>3255010</v>
       </c>
@@ -5524,13 +4342,13 @@
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>3255011</v>
       </c>
@@ -5541,13 +4359,13 @@
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>3255012</v>
       </c>
@@ -5558,13 +4376,13 @@
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>3255013</v>
       </c>
@@ -5575,13 +4393,13 @@
         <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>3255014</v>
       </c>
@@ -5592,13 +4410,13 @@
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>3255015</v>
       </c>
@@ -5609,13 +4427,13 @@
         <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>3255016</v>
       </c>
@@ -5626,13 +4444,13 @@
         <v>12</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2">
         <v>2.4</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>3255017</v>
       </c>
@@ -5643,13 +4461,13 @@
         <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>3255018</v>
       </c>
@@ -5660,13 +4478,13 @@
         <v>12</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>3255019</v>
       </c>
@@ -5677,13 +4495,13 @@
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>3255020</v>
       </c>
@@ -5694,13 +4512,13 @@
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E34" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>3255021</v>
       </c>
@@ -5711,13 +4529,13 @@
         <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>3255022</v>
       </c>
@@ -5728,13 +4546,13 @@
         <v>12</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E36" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>3255023</v>
       </c>
@@ -5745,13 +4563,13 @@
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E37" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>3255024</v>
       </c>
@@ -5762,13 +4580,13 @@
         <v>12</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E38" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>3255025</v>
       </c>
@@ -5779,13 +4597,13 @@
         <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E39" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>3255026</v>
       </c>
@@ -5796,13 +4614,13 @@
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E40" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>3255027</v>
       </c>
@@ -5813,13 +4631,13 @@
         <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E41" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>3255028</v>
       </c>
@@ -5830,13 +4648,13 @@
         <v>10</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E42" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>3255029</v>
       </c>
@@ -5847,13 +4665,13 @@
         <v>10</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E43" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>3255030</v>
       </c>
@@ -5864,13 +4682,13 @@
         <v>10</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E44" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>3255031</v>
       </c>
@@ -5881,13 +4699,13 @@
         <v>10</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E45" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>3255032</v>
       </c>
@@ -5898,13 +4716,13 @@
         <v>10</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E46" s="2">
         <v>2.4</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>3255033</v>
       </c>
@@ -5915,13 +4733,13 @@
         <v>10</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E47" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>3255034</v>
       </c>
@@ -5932,13 +4750,13 @@
         <v>10</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E48" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>3255035</v>
       </c>
@@ -5949,13 +4767,13 @@
         <v>10</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E49" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>3255036</v>
       </c>
@@ -5966,13 +4784,13 @@
         <v>10</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E50" s="2">
         <v>2.4</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>3255037</v>
       </c>
@@ -5983,13 +4801,13 @@
         <v>10</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E51" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>3255038</v>
       </c>
@@ -6000,13 +4818,13 @@
         <v>10</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E52" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>3255039</v>
       </c>
@@ -6017,13 +4835,13 @@
         <v>10</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E53" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>3255040</v>
       </c>
@@ -6034,13 +4852,13 @@
         <v>10</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E54" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>3255041</v>
       </c>
@@ -6051,13 +4869,13 @@
         <v>10</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E55" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>3255042</v>
       </c>
@@ -6068,13 +4886,13 @@
         <v>10</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E56" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>3255043</v>
       </c>
@@ -6085,13 +4903,13 @@
         <v>10</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E57" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>3255044</v>
       </c>
@@ -6102,13 +4920,13 @@
         <v>10</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E58" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>3255045</v>
       </c>
@@ -6119,13 +4937,13 @@
         <v>10</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E59" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>3255046</v>
       </c>
@@ -6136,13 +4954,13 @@
         <v>10</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E60" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>3255047</v>
       </c>
@@ -6153,13 +4971,13 @@
         <v>10</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E61" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>3255048</v>
       </c>
@@ -6170,13 +4988,13 @@
         <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E62" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>3255049</v>
       </c>
@@ -6187,13 +5005,13 @@
         <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E63" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>3255050</v>
       </c>
@@ -6204,13 +5022,13 @@
         <v>16</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E64" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>3255051</v>
       </c>
@@ -6221,13 +5039,13 @@
         <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E65" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>3255052</v>
       </c>
@@ -6238,13 +5056,13 @@
         <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E66" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>3255053</v>
       </c>
@@ -6255,13 +5073,13 @@
         <v>16</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E67" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>3255054</v>
       </c>
@@ -6272,13 +5090,13 @@
         <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E68" s="2">
         <v>2.4</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>3255055</v>
       </c>
@@ -6289,13 +5107,13 @@
         <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E69" s="2">
         <v>2.4</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>3255056</v>
       </c>
@@ -6306,13 +5124,13 @@
         <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E70" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>3255057</v>
       </c>
@@ -6323,13 +5141,13 @@
         <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E71" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>3255058</v>
       </c>
@@ -6340,13 +5158,13 @@
         <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E72" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>3255059</v>
       </c>
@@ -6357,13 +5175,13 @@
         <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E73" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>3255060</v>
       </c>
@@ -6374,13 +5192,13 @@
         <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E74" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>3255061</v>
       </c>
@@ -6391,13 +5209,13 @@
         <v>16</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E75" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>3255062</v>
       </c>
@@ -6408,13 +5226,13 @@
         <v>16</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E76" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>3255063</v>
       </c>
@@ -6425,13 +5243,13 @@
         <v>16</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E77" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>3255064</v>
       </c>
@@ -6442,13 +5260,13 @@
         <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E78" s="2">
         <v>2.4</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>3255065</v>
       </c>
@@ -6459,13 +5277,13 @@
         <v>16</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E79" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>3255066</v>
       </c>
@@ -6476,13 +5294,13 @@
         <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E80" s="2">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>3255067</v>
       </c>
@@ -6493,13 +5311,13 @@
         <v>16</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E81" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>3255088</v>
       </c>
@@ -6510,13 +5328,13 @@
         <v>6</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E82" s="2">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>3255089</v>
       </c>
@@ -6527,13 +5345,13 @@
         <v>6</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E83" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>3255090</v>
       </c>
@@ -6544,13 +5362,13 @@
         <v>6</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E84" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>3255091</v>
       </c>
@@ -6561,13 +5379,13 @@
         <v>6</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E85" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>3255092</v>
       </c>
@@ -6578,13 +5396,13 @@
         <v>6</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E86" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>3255093</v>
       </c>
@@ -6595,13 +5413,13 @@
         <v>6</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E87" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>3255094</v>
       </c>
@@ -6612,13 +5430,13 @@
         <v>6</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E88" s="2">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>3255095</v>
       </c>
@@ -6629,13 +5447,13 @@
         <v>6</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E89" s="2">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>3255096</v>
       </c>
@@ -6646,13 +5464,13 @@
         <v>6</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E90" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>3255097</v>
       </c>
@@ -6663,13 +5481,13 @@
         <v>6</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E91" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>3255098</v>
       </c>
@@ -6680,13 +5498,13 @@
         <v>6</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E92" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>3255099</v>
       </c>
@@ -6697,13 +5515,13 @@
         <v>6</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E93" s="2">
         <v>4.2</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>3255100</v>
       </c>
@@ -6714,13 +5532,13 @@
         <v>6</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E94" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>3255101</v>
       </c>
@@ -6731,13 +5549,13 @@
         <v>6</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E95" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>3255102</v>
       </c>
@@ -6748,13 +5566,13 @@
         <v>6</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E96" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>3255103</v>
       </c>
@@ -6765,13 +5583,13 @@
         <v>6</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E97" s="2">
         <v>4.2</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>3255104</v>
       </c>
@@ -6782,13 +5600,13 @@
         <v>6</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E98" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>3255105</v>
       </c>
@@ -6799,13 +5617,13 @@
         <v>6</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E99" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>3255106</v>
       </c>
@@ -6816,13 +5634,13 @@
         <v>6</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E100" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>3255107</v>
       </c>
@@ -6833,13 +5651,13 @@
         <v>6</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E101" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>3255108</v>
       </c>
@@ -6850,13 +5668,13 @@
         <v>11</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E102" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>3255109</v>
       </c>
@@ -6867,13 +5685,13 @@
         <v>11</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E103" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>3255110</v>
       </c>
@@ -6884,13 +5702,13 @@
         <v>11</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E104" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>3255111</v>
       </c>
@@ -6901,13 +5719,13 @@
         <v>11</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E105" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>3255112</v>
       </c>
@@ -6918,13 +5736,13 @@
         <v>11</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E106" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <v>3255113</v>
       </c>
@@ -6935,13 +5753,13 @@
         <v>11</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E107" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>3255114</v>
       </c>
@@ -6952,13 +5770,13 @@
         <v>11</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E108" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>3255115</v>
       </c>
@@ -6969,13 +5787,13 @@
         <v>11</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E109" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>3255116</v>
       </c>
@@ -6986,13 +5804,13 @@
         <v>11</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E110" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>3255117</v>
       </c>
@@ -7003,13 +5821,13 @@
         <v>11</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E111" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <v>3255118</v>
       </c>
@@ -7020,13 +5838,13 @@
         <v>11</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E112" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
         <v>3255119</v>
       </c>
@@ -7037,13 +5855,13 @@
         <v>11</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E113" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>3255120</v>
       </c>
@@ -7054,13 +5872,13 @@
         <v>11</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E114" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>3255121</v>
       </c>
@@ -7071,13 +5889,13 @@
         <v>11</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E115" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
         <v>3255122</v>
       </c>
@@ -7088,13 +5906,13 @@
         <v>11</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E116" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>3255123</v>
       </c>
@@ -7105,13 +5923,13 @@
         <v>11</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E117" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>3255124</v>
       </c>
@@ -7122,13 +5940,13 @@
         <v>11</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E118" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <v>3255125</v>
       </c>
@@ -7139,13 +5957,13 @@
         <v>11</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E119" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>3255126</v>
       </c>
@@ -7156,13 +5974,13 @@
         <v>11</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E120" s="2">
         <v>2.4</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>3255127</v>
       </c>
@@ -7173,13 +5991,13 @@
         <v>11</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E121" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
         <v>3255128</v>
       </c>
@@ -7190,13 +6008,13 @@
         <v>7</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E122" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>3255129</v>
       </c>
@@ -7207,13 +6025,13 @@
         <v>7</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E123" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>3255130</v>
       </c>
@@ -7224,13 +6042,13 @@
         <v>7</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E124" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
         <v>3255131</v>
       </c>
@@ -7241,13 +6059,13 @@
         <v>7</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E125" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>3255132</v>
       </c>
@@ -7258,13 +6076,13 @@
         <v>7</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E126" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>3255133</v>
       </c>
@@ -7275,13 +6093,13 @@
         <v>7</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E127" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>3255134</v>
       </c>
@@ -7292,13 +6110,13 @@
         <v>7</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E128" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
         <v>3255135</v>
       </c>
@@ -7309,13 +6127,13 @@
         <v>7</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E129" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
         <v>3255136</v>
       </c>
@@ -7326,13 +6144,13 @@
         <v>7</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E130" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>3255137</v>
       </c>
@@ -7343,13 +6161,13 @@
         <v>7</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E131" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
         <v>3255138</v>
       </c>
@@ -7360,13 +6178,13 @@
         <v>7</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E132" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
         <v>3255139</v>
       </c>
@@ -7377,13 +6195,13 @@
         <v>7</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E133" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
         <v>3255140</v>
       </c>
@@ -7394,13 +6212,13 @@
         <v>7</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E134" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
         <v>3255141</v>
       </c>
@@ -7411,13 +6229,13 @@
         <v>7</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E135" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
         <v>3255142</v>
       </c>
@@ -7428,13 +6246,13 @@
         <v>7</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E136" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
         <v>3255143</v>
       </c>
@@ -7445,13 +6263,13 @@
         <v>7</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E137" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
         <v>3255144</v>
       </c>
@@ -7462,13 +6280,13 @@
         <v>7</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E138" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" s="2">
         <v>3255145</v>
       </c>
@@ -7479,13 +6297,13 @@
         <v>7</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E139" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
         <v>3255146</v>
       </c>
@@ -7496,13 +6314,13 @@
         <v>7</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E140" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
         <v>3255147</v>
       </c>
@@ -7513,13 +6331,13 @@
         <v>7</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E141" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
         <v>3255148</v>
       </c>
@@ -7530,13 +6348,13 @@
         <v>4</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E142" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
         <v>3255149</v>
       </c>
@@ -7547,13 +6365,13 @@
         <v>4</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E143" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
         <v>3255150</v>
       </c>
@@ -7564,13 +6382,13 @@
         <v>4</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E144" s="2">
         <v>4.2</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
         <v>3255151</v>
       </c>
@@ -7581,13 +6399,13 @@
         <v>4</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E145" s="2">
         <v>4.2</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
         <v>3255152</v>
       </c>
@@ -7598,13 +6416,13 @@
         <v>4</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E146" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
         <v>3255153</v>
       </c>
@@ -7615,13 +6433,13 @@
         <v>4</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E147" s="2">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
         <v>3255154</v>
       </c>
@@ -7632,13 +6450,13 @@
         <v>4</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E148" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
         <v>3255155</v>
       </c>
@@ -7649,13 +6467,13 @@
         <v>4</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E149" s="2">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
         <v>3255156</v>
       </c>
@@ -7666,13 +6484,13 @@
         <v>4</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E150" s="2">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
         <v>3255157</v>
       </c>
@@ -7683,13 +6501,13 @@
         <v>4</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E151" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
         <v>3255158</v>
       </c>
@@ -7700,13 +6518,13 @@
         <v>4</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E152" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
         <v>3255159</v>
       </c>
@@ -7717,13 +6535,13 @@
         <v>4</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E153" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
         <v>3255160</v>
       </c>
@@ -7734,13 +6552,13 @@
         <v>4</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E154" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
         <v>3255161</v>
       </c>
@@ -7751,13 +6569,13 @@
         <v>4</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E155" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
         <v>3255162</v>
       </c>
@@ -7768,13 +6586,13 @@
         <v>4</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E156" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
         <v>3255163</v>
       </c>
@@ -7785,13 +6603,13 @@
         <v>4</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E157" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
         <v>3255164</v>
       </c>
@@ -7802,13 +6620,13 @@
         <v>4</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E158" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
         <v>3255165</v>
       </c>
@@ -7819,13 +6637,13 @@
         <v>4</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E159" s="2">
         <v>4.8</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" s="2">
         <v>3255166</v>
       </c>
@@ -7836,13 +6654,13 @@
         <v>4</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E160" s="2">
         <v>4.2</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" s="2">
         <v>3255167</v>
       </c>
@@ -7853,13 +6671,13 @@
         <v>4</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E161" s="2">
         <v>4.2</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
         <v>3255168</v>
       </c>
@@ -7870,13 +6688,13 @@
         <v>5</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E162" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" s="2">
         <v>3255169</v>
       </c>
@@ -7887,13 +6705,13 @@
         <v>5</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E163" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" s="2">
         <v>3255170</v>
       </c>
@@ -7904,13 +6722,13 @@
         <v>5</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E164" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" s="2">
         <v>3255171</v>
       </c>
@@ -7921,13 +6739,13 @@
         <v>5</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E165" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" s="2">
         <v>3255172</v>
       </c>
@@ -7938,13 +6756,13 @@
         <v>5</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E166" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" s="2">
         <v>3255173</v>
       </c>
@@ -7955,13 +6773,13 @@
         <v>5</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E167" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" s="2">
         <v>3255174</v>
       </c>
@@ -7972,13 +6790,13 @@
         <v>5</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E168" s="2">
         <v>4.2</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" s="2">
         <v>3255175</v>
       </c>
@@ -7989,13 +6807,13 @@
         <v>5</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E169" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A170" s="2">
         <v>3255176</v>
       </c>
@@ -8006,13 +6824,13 @@
         <v>5</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E170" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" s="2">
         <v>3255177</v>
       </c>
@@ -8023,13 +6841,13 @@
         <v>5</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E171" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" s="2">
         <v>3255178</v>
       </c>
@@ -8040,13 +6858,13 @@
         <v>5</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E172" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" s="2">
         <v>3255179</v>
       </c>
@@ -8057,13 +6875,13 @@
         <v>5</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E173" s="2">
         <v>4.2</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A174" s="2">
         <v>3255180</v>
       </c>
@@ -8074,13 +6892,13 @@
         <v>5</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E174" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" s="2">
         <v>3255181</v>
       </c>
@@ -8091,13 +6909,13 @@
         <v>5</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E175" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
         <v>3255182</v>
       </c>
@@ -8108,13 +6926,13 @@
         <v>5</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E176" s="2">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177" s="2">
         <v>3255183</v>
       </c>
@@ -8125,13 +6943,13 @@
         <v>5</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E177" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" s="2">
         <v>3255184</v>
       </c>
@@ -8142,13 +6960,13 @@
         <v>5</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E178" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" s="2">
         <v>3255185</v>
       </c>
@@ -8159,13 +6977,13 @@
         <v>5</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E179" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" s="2">
         <v>3255186</v>
       </c>
@@ -8176,13 +6994,13 @@
         <v>5</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E180" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181" s="2">
         <v>3255187</v>
       </c>
@@ -8193,13 +7011,13 @@
         <v>5</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E181" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" s="2">
         <v>3255188</v>
       </c>
@@ -8210,13 +7028,13 @@
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E182" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" s="2">
         <v>3255189</v>
       </c>
@@ -8227,13 +7045,13 @@
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E183" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A184" s="2">
         <v>3255190</v>
       </c>
@@ -8244,13 +7062,13 @@
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E184" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A185" s="2">
         <v>3255191</v>
       </c>
@@ -8261,13 +7079,13 @@
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E185" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A186" s="2">
         <v>3255192</v>
       </c>
@@ -8278,13 +7096,13 @@
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E186" s="2">
         <v>4.2</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187" s="2">
         <v>3255193</v>
       </c>
@@ -8295,13 +7113,13 @@
         <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E187" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A188" s="2">
         <v>3255194</v>
       </c>
@@ -8312,13 +7130,13 @@
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E188" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A189" s="2">
         <v>3255195</v>
       </c>
@@ -8329,13 +7147,13 @@
         <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E189" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A190" s="2">
         <v>3255196</v>
       </c>
@@ -8346,13 +7164,13 @@
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E190" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A191" s="2">
         <v>3255197</v>
       </c>
@@ -8363,13 +7181,13 @@
         <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E191" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A192" s="2">
         <v>3255198</v>
       </c>
@@ -8380,13 +7198,13 @@
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E192" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A193" s="2">
         <v>3255199</v>
       </c>
@@ -8397,13 +7215,13 @@
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E193" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A194" s="2">
         <v>3255200</v>
       </c>
@@ -8414,13 +7232,13 @@
         <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E194" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A195" s="2">
         <v>3255201</v>
       </c>
@@ -8431,13 +7249,13 @@
         <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E195" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A196" s="2">
         <v>3255202</v>
       </c>
@@ -8448,13 +7266,13 @@
         <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E196" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A197" s="2">
         <v>3255203</v>
       </c>
@@ -8465,13 +7283,13 @@
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E197" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A198" s="2">
         <v>3255204</v>
       </c>
@@ -8482,13 +7300,13 @@
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E198" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A199" s="2">
         <v>3255205</v>
       </c>
@@ -8499,13 +7317,13 @@
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E199" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A200" s="2">
         <v>3255206</v>
       </c>
@@ -8516,13 +7334,13 @@
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E200" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A201" s="2">
         <v>3255207</v>
       </c>
@@ -8533,13 +7351,13 @@
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E201" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A202" s="2">
         <v>3255208</v>
       </c>
@@ -8550,13 +7368,13 @@
         <v>13</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E202" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A203" s="2">
         <v>3255209</v>
       </c>
@@ -8567,13 +7385,13 @@
         <v>13</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E203" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A204" s="2">
         <v>3255210</v>
       </c>
@@ -8584,13 +7402,13 @@
         <v>13</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E204" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A205" s="2">
         <v>3255211</v>
       </c>
@@ -8601,13 +7419,13 @@
         <v>13</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E205" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A206" s="2">
         <v>3255212</v>
       </c>
@@ -8618,13 +7436,13 @@
         <v>13</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E206" s="2">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A207" s="2">
         <v>3255213</v>
       </c>
@@ -8635,13 +7453,13 @@
         <v>13</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E207" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A208" s="2">
         <v>3255214</v>
       </c>
@@ -8652,13 +7470,13 @@
         <v>13</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E208" s="2">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A209" s="2">
         <v>3255215</v>
       </c>
@@ -8669,13 +7487,13 @@
         <v>13</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E209" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A210" s="2">
         <v>3255216</v>
       </c>
@@ -8686,13 +7504,13 @@
         <v>13</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E210" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A211" s="2">
         <v>3255217</v>
       </c>
@@ -8703,13 +7521,13 @@
         <v>13</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E211" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A212" s="2">
         <v>3255218</v>
       </c>
@@ -8720,13 +7538,13 @@
         <v>13</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E212" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A213" s="2">
         <v>3255219</v>
       </c>
@@ -8737,13 +7555,13 @@
         <v>13</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E213" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A214" s="2">
         <v>3255220</v>
       </c>
@@ -8754,13 +7572,13 @@
         <v>13</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E214" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A215" s="2">
         <v>3255221</v>
       </c>
@@ -8771,13 +7589,13 @@
         <v>13</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E215" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A216" s="2">
         <v>3255222</v>
       </c>
@@ -8788,13 +7606,13 @@
         <v>13</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E216" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A217" s="2">
         <v>3255223</v>
       </c>
@@ -8805,13 +7623,13 @@
         <v>13</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E217" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A218" s="2">
         <v>3255224</v>
       </c>
@@ -8822,13 +7640,13 @@
         <v>13</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E218" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A219" s="2">
         <v>3255225</v>
       </c>
@@ -8839,13 +7657,13 @@
         <v>13</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E219" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A220" s="2">
         <v>3255226</v>
       </c>
@@ -8856,13 +7674,13 @@
         <v>13</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E220" s="2">
         <v>2.4</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A221" s="2">
         <v>3255227</v>
       </c>
@@ -8873,13 +7691,13 @@
         <v>13</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E221" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A222" s="2">
         <v>3255248</v>
       </c>
@@ -8890,13 +7708,13 @@
         <v>15</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E222" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A223" s="2">
         <v>3255249</v>
       </c>
@@ -8907,13 +7725,13 @@
         <v>15</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E223" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A224" s="2">
         <v>3255250</v>
       </c>
@@ -8924,13 +7742,13 @@
         <v>15</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E224" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A225" s="2">
         <v>3255251</v>
       </c>
@@ -8941,13 +7759,13 @@
         <v>15</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E225" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A226" s="2">
         <v>3255252</v>
       </c>
@@ -8958,13 +7776,13 @@
         <v>15</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E226" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A227" s="2">
         <v>3255253</v>
       </c>
@@ -8975,13 +7793,13 @@
         <v>15</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E227" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A228" s="2">
         <v>3255254</v>
       </c>
@@ -8992,13 +7810,13 @@
         <v>15</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E228" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A229" s="2">
         <v>3255255</v>
       </c>
@@ -9009,13 +7827,13 @@
         <v>15</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E229" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A230" s="2">
         <v>3255256</v>
       </c>
@@ -9026,13 +7844,13 @@
         <v>15</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E230" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A231" s="2">
         <v>3255257</v>
       </c>
@@ -9043,13 +7861,13 @@
         <v>15</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E231" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A232" s="2">
         <v>3255258</v>
       </c>
@@ -9060,13 +7878,13 @@
         <v>15</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E232" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A233" s="2">
         <v>3255259</v>
       </c>
@@ -9077,13 +7895,13 @@
         <v>15</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E233" s="2">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A234" s="2">
         <v>3255260</v>
       </c>
@@ -9094,13 +7912,13 @@
         <v>15</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E234" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A235" s="2">
         <v>3255261</v>
       </c>
@@ -9111,13 +7929,13 @@
         <v>15</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E235" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A236" s="2">
         <v>3255262</v>
       </c>
@@ -9128,13 +7946,13 @@
         <v>15</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E236" s="2">
         <v>2.4</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A237" s="2">
         <v>3255263</v>
       </c>
@@ -9145,13 +7963,13 @@
         <v>15</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E237" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A238" s="2">
         <v>3255264</v>
       </c>
@@ -9162,13 +7980,13 @@
         <v>15</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E238" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A239" s="2">
         <v>3255265</v>
       </c>
@@ -9179,13 +7997,13 @@
         <v>15</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E239" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A240" s="2">
         <v>3255266</v>
       </c>
@@ -9196,13 +8014,13 @@
         <v>15</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E240" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A241" s="2">
         <v>3255267</v>
       </c>
@@ -9213,13 +8031,13 @@
         <v>15</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E241" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A242" s="2">
         <v>3255268</v>
       </c>
@@ -9230,13 +8048,13 @@
         <v>14</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E242" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A243" s="2">
         <v>3255269</v>
       </c>
@@ -9247,13 +8065,13 @@
         <v>14</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E243" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A244" s="2">
         <v>3255270</v>
       </c>
@@ -9264,13 +8082,13 @@
         <v>14</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E244" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A245" s="2">
         <v>3255271</v>
       </c>
@@ -9281,13 +8099,13 @@
         <v>14</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E245" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A246" s="2">
         <v>3255272</v>
       </c>
@@ -9298,13 +8116,13 @@
         <v>14</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E246" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A247" s="2">
         <v>3255273</v>
       </c>
@@ -9315,13 +8133,13 @@
         <v>14</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E247" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A248" s="2">
         <v>3255274</v>
       </c>
@@ -9332,13 +8150,13 @@
         <v>14</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E248" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A249" s="2">
         <v>3255275</v>
       </c>
@@ -9349,13 +8167,13 @@
         <v>14</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E249" s="2">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A250" s="2">
         <v>3255276</v>
       </c>
@@ -9366,13 +8184,13 @@
         <v>14</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E250" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A251" s="2">
         <v>3255277</v>
       </c>
@@ -9383,13 +8201,13 @@
         <v>14</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E251" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A252" s="2">
         <v>3255278</v>
       </c>
@@ -9400,13 +8218,13 @@
         <v>14</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E252" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A253" s="2">
         <v>3255279</v>
       </c>
@@ -9417,13 +8235,13 @@
         <v>14</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E253" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A254" s="2">
         <v>3255280</v>
       </c>
@@ -9434,13 +8252,13 @@
         <v>14</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E254" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A255" s="2">
         <v>3255281</v>
       </c>
@@ -9451,13 +8269,13 @@
         <v>14</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E255" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A256" s="2">
         <v>3255282</v>
       </c>
@@ -9468,13 +8286,13 @@
         <v>14</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E256" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A257" s="2">
         <v>3255283</v>
       </c>
@@ -9485,13 +8303,13 @@
         <v>14</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E257" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A258" s="2">
         <v>3255284</v>
       </c>
@@ -9502,13 +8320,13 @@
         <v>14</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E258" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A259" s="2">
         <v>3255285</v>
       </c>
@@ -9519,13 +8337,13 @@
         <v>14</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E259" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A260" s="2">
         <v>3255286</v>
       </c>
@@ -9536,13 +8354,13 @@
         <v>14</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E260" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A261" s="2">
         <v>3255287</v>
       </c>
@@ -9553,13 +8371,13 @@
         <v>14</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E261" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A262" s="2">
         <v>3255288</v>
       </c>
@@ -9570,13 +8388,13 @@
         <v>8</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E262" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A263" s="2">
         <v>3255289</v>
       </c>
@@ -9587,13 +8405,13 @@
         <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E263" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A264" s="2">
         <v>3255290</v>
       </c>
@@ -9604,13 +8422,13 @@
         <v>8</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E264" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A265" s="2">
         <v>3255291</v>
       </c>
@@ -9621,13 +8439,13 @@
         <v>8</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E265" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A266" s="2">
         <v>3255292</v>
       </c>
@@ -9638,13 +8456,13 @@
         <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E266" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A267" s="2">
         <v>3255293</v>
       </c>
@@ -9655,13 +8473,13 @@
         <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E267" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A268" s="2">
         <v>3255294</v>
       </c>
@@ -9672,13 +8490,13 @@
         <v>8</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E268" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A269" s="2">
         <v>3255295</v>
       </c>
@@ -9689,13 +8507,13 @@
         <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E269" s="2">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A270" s="2">
         <v>3255296</v>
       </c>
@@ -9706,13 +8524,13 @@
         <v>8</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E270" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A271" s="2">
         <v>3255297</v>
       </c>
@@ -9723,13 +8541,13 @@
         <v>8</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E271" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A272" s="2">
         <v>3255298</v>
       </c>
@@ -9740,13 +8558,13 @@
         <v>8</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E272" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A273" s="2">
         <v>3255299</v>
       </c>
@@ -9757,13 +8575,13 @@
         <v>8</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E273" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A274" s="2">
         <v>3255300</v>
       </c>
@@ -9774,13 +8592,13 @@
         <v>8</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E274" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A275" s="2">
         <v>3255301</v>
       </c>
@@ -9791,13 +8609,13 @@
         <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E275" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A276" s="2">
         <v>3255302</v>
       </c>
@@ -9808,13 +8626,13 @@
         <v>8</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E276" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A277" s="2">
         <v>3255303</v>
       </c>
@@ -9825,13 +8643,13 @@
         <v>8</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E277" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A278" s="2">
         <v>3255304</v>
       </c>
@@ -9842,13 +8660,13 @@
         <v>8</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E278" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A279" s="2">
         <v>3255305</v>
       </c>
@@ -9859,13 +8677,13 @@
         <v>8</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E279" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A280" s="2">
         <v>3255306</v>
       </c>
@@ -9876,13 +8694,13 @@
         <v>8</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E280" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A281" s="2">
         <v>3255307</v>
       </c>
@@ -9893,15 +8711,15 @@
         <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E281" s="2">
         <v>3.2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>